--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/机构报表统计.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/机构报表统计.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="201">
   <si>
     <t xml:space="preserve">组织机构</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">广安市公司</t>
   </si>
   <si>
-    <t xml:space="preserve">1507</t>
+    <t xml:space="preserve">1532</t>
   </si>
   <si>
     <t xml:space="preserve">12815</t>
@@ -161,252 +161,258 @@
     <t xml:space="preserve">c九龙6片_张辉</t>
   </si>
   <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙5片_吴波</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙3片_王洋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙2片_杨磊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙1片_宋涛k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武胜县烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38876.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉陵江西营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12602.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江西4片_陆翔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江西3片_张颂明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江西2片_樊小东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江西1片_秦杨东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉陵江东营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26273.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江东6片_何卫华</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江东5片_汤伟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江东4片_滕鹤鸣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c江东3片_谢园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c江东1片_刘乙霏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c江东1片_贾旭东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前锋区烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前锋营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n前锋_余善林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n前锋_唐利平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n前锋_谭心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n前锋_蒋凯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n前锋_柏杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c前锋_谭军华k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邻水县烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽7片_谢明林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽6片_张周</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽5片_王婷</t>
+  </si>
+  <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
-    <t xml:space="preserve">c九龙5片_吴波</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c九龙3片_王洋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c九龙2片_杨磊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c九龙1片_宋涛k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武胜县烟草分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38876.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嘉陵江西营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12602.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江西4片_陆翔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江西3片_张颂明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江西2片_樊小东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江西1片_秦杨东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嘉陵江东营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26273.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江东6片_何卫华</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江东5片_汤伟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江东4片_滕鹤鸣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c江东3片_谢园</t>
+    <t xml:space="preserve">西槽4片_刘衡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽3片_田娴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽2片_卢艳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽1片_谢曲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东槽营销区域</t>
   </si>
   <si>
     <t xml:space="preserve">45</t>
   </si>
   <si>
-    <t xml:space="preserve">c江东1片_刘乙霏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c江东1片_贾旭东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前锋区烟草分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前锋营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n前锋_余善林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n前锋_唐利平</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n前锋_谭心</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n前锋_蒋凯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n前锋_柏杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c前锋_谭军华k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邻水县烟草分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽7片_谢明林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽6片_张周</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽5片_王婷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽4片_刘衡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽3片_田娴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽2片_卢艳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽1片_谢曲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">东槽营销区域</t>
-  </si>
-  <si>
     <t xml:space="preserve">东槽4片_刘鑫</t>
   </si>
   <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
     <t xml:space="preserve">东槽3片_赖兴元</t>
   </si>
   <si>
@@ -419,15 +425,12 @@
     <t xml:space="preserve">华蓥市烟草分公司</t>
   </si>
   <si>
-    <t xml:space="preserve">134</t>
+    <t xml:space="preserve">135</t>
   </si>
   <si>
     <t xml:space="preserve">686</t>
   </si>
   <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
     <t xml:space="preserve">35631.00</t>
   </si>
   <si>
@@ -452,6 +455,9 @@
     <t xml:space="preserve">n华蓥4片_张巧</t>
   </si>
   <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
     <t xml:space="preserve">c华蓥3片_陈龙</t>
   </si>
   <si>
@@ -524,7 +530,7 @@
     <t xml:space="preserve">城区营销区域</t>
   </si>
   <si>
-    <t xml:space="preserve">292</t>
+    <t xml:space="preserve">293</t>
   </si>
   <si>
     <t xml:space="preserve">n广安城区9片_刘昶</t>
@@ -542,40 +548,43 @@
     <t xml:space="preserve">c广安城区5片_周宏玮</t>
   </si>
   <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c广安城区4片_罗烃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">845400.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">845400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c广安城区3片_陈娇</t>
+  </si>
+  <si>
     <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2710.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c广安城区4片_罗烃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">845400.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">845400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">422700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c广安城区3片_陈娇</t>
   </si>
   <si>
     <t xml:space="preserve">c广安城区2片_宋昕</t>
@@ -704,6 +713,9 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -724,6 +736,9 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -746,6 +761,9 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -766,6 +784,9 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -786,6 +807,9 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -806,6 +830,9 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -826,6 +853,9 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -846,6 +876,9 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -866,6 +899,9 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -886,6 +922,9 @@
       <c r="F11" t="s">
         <v>23</v>
       </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -906,6 +945,9 @@
       <c r="F12" t="s">
         <v>23</v>
       </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -924,6 +966,9 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -946,6 +991,9 @@
       <c r="F14" t="s">
         <v>23</v>
       </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -966,6 +1014,9 @@
       <c r="F15" t="s">
         <v>23</v>
       </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -986,6 +1037,9 @@
       <c r="F16" t="s">
         <v>23</v>
       </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1006,6 +1060,9 @@
       <c r="F17" t="s">
         <v>23</v>
       </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1026,6 +1083,9 @@
       <c r="F18" t="s">
         <v>23</v>
       </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1046,13 +1106,16 @@
       <c r="F19" t="s">
         <v>23</v>
       </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1064,15 +1127,18 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1084,16 +1150,19 @@
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -1104,56 +1173,65 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="F23" t="s">
-        <v>65</v>
+      <c r="G23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>69</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="s">
-        <v>72</v>
+      <c r="G24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -1164,36 +1242,42 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" t="s">
-        <v>72</v>
+      <c r="G26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -1204,6 +1288,9 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1212,7 +1299,7 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -1224,35 +1311,41 @@
         <v>24</v>
       </c>
       <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
         <v>84</v>
       </c>
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1264,15 +1357,18 @@
         <v>24</v>
       </c>
       <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1284,35 +1380,41 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
         <v>84</v>
       </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -1324,15 +1426,18 @@
         <v>24</v>
       </c>
       <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -1344,15 +1449,18 @@
         <v>24</v>
       </c>
       <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -1366,11 +1474,16 @@
       <c r="F35" t="s">
         <v>23</v>
       </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36"/>
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -1384,11 +1497,16 @@
       <c r="F36" t="s">
         <v>23</v>
       </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37"/>
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -1400,15 +1518,18 @@
         <v>24</v>
       </c>
       <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1420,15 +1541,18 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
@@ -1440,15 +1564,18 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -1460,15 +1587,18 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -1480,15 +1610,18 @@
         <v>24</v>
       </c>
       <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -1500,15 +1633,18 @@
         <v>24</v>
       </c>
       <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
@@ -1520,53 +1656,64 @@
         <v>24</v>
       </c>
       <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>115</v>
+      </c>
+      <c r="G44" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>115</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46"/>
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>23</v>
@@ -1580,11 +1727,16 @@
       <c r="F46" t="s">
         <v>23</v>
       </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47"/>
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -1596,75 +1748,87 @@
         <v>24</v>
       </c>
       <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>115</v>
+      </c>
+      <c r="G50" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
@@ -1676,15 +1840,18 @@
         <v>24</v>
       </c>
       <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
@@ -1696,15 +1863,18 @@
         <v>24</v>
       </c>
       <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
@@ -1716,35 +1886,41 @@
         <v>24</v>
       </c>
       <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
@@ -1756,15 +1932,18 @@
         <v>24</v>
       </c>
       <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -1776,15 +1955,18 @@
         <v>24</v>
       </c>
       <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -1796,55 +1978,64 @@
         <v>24</v>
       </c>
       <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>140</v>
+      </c>
+      <c r="G58" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>140</v>
+      </c>
+      <c r="G59" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
         <v>23</v>
@@ -1856,15 +2047,18 @@
         <v>24</v>
       </c>
       <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
         <v>23</v>
@@ -1876,95 +2070,110 @@
         <v>24</v>
       </c>
       <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>151</v>
+      </c>
+      <c r="G64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B65" t="s">
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>156</v>
+      </c>
+      <c r="G65" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
@@ -1976,75 +2185,87 @@
         <v>24</v>
       </c>
       <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>164</v>
+      </c>
+      <c r="G67" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>155</v>
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
         <v>23</v>
@@ -2056,55 +2277,64 @@
         <v>24</v>
       </c>
       <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>163</v>
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" t="s">
         <v>164</v>
       </c>
-      <c r="B72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" t="s">
-        <v>23</v>
+      <c r="G72" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
         <v>23</v>
@@ -2116,15 +2346,18 @@
         <v>24</v>
       </c>
       <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>23</v>
@@ -2136,15 +2369,18 @@
         <v>24</v>
       </c>
       <c r="F74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>23</v>
@@ -2156,75 +2392,87 @@
         <v>24</v>
       </c>
       <c r="F75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>163</v>
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>181</v>
+      </c>
+      <c r="G77" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>187</v>
+      </c>
+      <c r="G78" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
         <v>23</v>
@@ -2236,163 +2484,56 @@
         <v>24</v>
       </c>
       <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>193</v>
+      </c>
+      <c r="G80" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F81" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>181</v>
-      </c>
-      <c r="B82" t="s">
-        <v>126</v>
-      </c>
-      <c r="C82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" t="s">
-        <v>183</v>
-      </c>
-      <c r="E82" t="s">
-        <v>184</v>
-      </c>
-      <c r="F82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>187</v>
-      </c>
-      <c r="B83" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" t="s">
-        <v>189</v>
-      </c>
-      <c r="F84" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" t="s">
-        <v>193</v>
-      </c>
-      <c r="D85" t="s">
-        <v>194</v>
-      </c>
-      <c r="E85" t="s">
-        <v>195</v>
-      </c>
-      <c r="F85" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86"/>
-      <c r="B86" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87"/>
-      <c r="B87" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" t="s">
-        <v>23</v>
+        <v>199</v>
+      </c>
+      <c r="G81" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/机构报表统计.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/机构报表统计.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="202">
   <si>
     <t xml:space="preserve">组织机构</t>
   </si>
@@ -56,6 +56,27 @@
     <t xml:space="preserve">467346</t>
   </si>
   <si>
+    <t xml:space="preserve">广安区烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">855758.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">855963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">427824</t>
+  </si>
+  <si>
     <t xml:space="preserve">岳池县烟草分公司</t>
   </si>
   <si>
@@ -77,157 +98,391 @@
     <t xml:space="preserve">2156</t>
   </si>
   <si>
+    <t xml:space="preserve">武胜县烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38876.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邻水县烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华蓥市烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35631.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前锋区烟草分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">城区营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河西营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">九龙营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罗渡营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
     <t xml:space="preserve">坪滩营销区域</t>
   </si>
   <si>
     <t xml:space="preserve">57</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
+    <t xml:space="preserve">嘉陵江东营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26273.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉陵江西营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12602.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东槽营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华蓥区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前锋营销区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n广安城区9片_刘昶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n广安城区8片_李程柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n广安城区10片_杨芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c广安城区7片_李江琴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c广安城区5片_周宏玮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c广安城区4片_罗烃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">845400.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">845400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c广安城区3片_陈娇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c广安城区2片_宋昕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c广安城区1片_唐建芬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7491.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n渠江西3片_陈筱燕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n渠江西1片_李娟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n河西_王超</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n九龙9片_杨雄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n九龙8片_张智</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n九龙7片_赵力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n九龙10片_王斌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙6片_张辉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙5片_吴波</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙3片_王洋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙2片_杨磊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙1片_宋涛k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n罗渡4片_刘小珲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n罗渡3片_万添意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n罗渡2片_李乾</t>
   </si>
   <si>
     <t xml:space="preserve">n坪滩4片_杨斌</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">n坪滩3片_蒋永涛</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
     <t xml:space="preserve">n坪滩2片_赖贞亮</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
     <t xml:space="preserve">n坪滩1片_江山娇</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">罗渡营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n罗渡4片_刘小珲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n罗渡3片_万添意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n罗渡2片_李乾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">九龙营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n九龙9片_杨雄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n九龙8片_张智</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n九龙7片_赵力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n九龙10片_王斌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c九龙6片_张辉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c九龙5片_吴波</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c九龙3片_王洋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c九龙2片_杨磊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c九龙1片_宋涛k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武胜县烟草分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38876.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嘉陵江西营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12602.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6299</t>
+    <t xml:space="preserve">n江东6片_何卫华</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江东5片_汤伟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江东4片_滕鹤鸣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c江东3片_谢园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c江东1片_刘乙霏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c江东1片_贾旭东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
   </si>
   <si>
     <t xml:space="preserve">n江西4片_陆翔</t>
@@ -248,70 +503,97 @@
     <t xml:space="preserve">n江西1片_秦杨东</t>
   </si>
   <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嘉陵江东营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26273.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江东6片_何卫华</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江东5片_汤伟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n江东4片_滕鹤鸣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c江东3片_谢园</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c江东1片_刘乙霏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c江东1片_贾旭东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前锋区烟草分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前锋营销区域</t>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽7片_谢明林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽6片_张周</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽5片_王婷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽4片_刘衡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽3片_田娴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽2片_卢艳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽1片_谢曲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东槽4片_刘鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东槽3片_赖兴元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东槽2片_李刚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东槽1片_刘静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n华蓥7片_胡臣贤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n华蓥6片_王皓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n华蓥5片_熊梓良</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n华蓥4片_张巧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c华蓥3片_陈龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c华蓥2片_邓功强</t>
+  </si>
+  <si>
+    <t xml:space="preserve">676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34631.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c华蓥1片_唐银</t>
   </si>
   <si>
     <t xml:space="preserve">n前锋_余善林</t>
@@ -329,292 +611,13 @@
     <t xml:space="preserve">n前锋_谭心</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
     <t xml:space="preserve">n前锋_蒋凯</t>
   </si>
   <si>
     <t xml:space="preserve">n前锋_柏杉</t>
   </si>
   <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
     <t xml:space="preserve">c前锋_谭军华k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邻水县烟草分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽7片_谢明林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽6片_张周</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽5片_王婷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽4片_刘衡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽3片_田娴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽2片_卢艳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西槽1片_谢曲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">东槽营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">东槽4片_刘鑫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">东槽3片_赖兴元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">东槽2片_李刚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">东槽1片_刘静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华蓥市烟草分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35631.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华蓥区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n华蓥7片_胡臣贤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n华蓥6片_王皓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n华蓥5片_熊梓良</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n华蓥4片_张巧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c华蓥3片_陈龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c华蓥2片_邓功强</t>
-  </si>
-  <si>
-    <t xml:space="preserve">676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34631.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c华蓥1片_唐银</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广安区烟草分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">855758.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">855963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">427824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河西营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n渠江西3片_陈筱燕</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n渠江西1片_李娟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n河西_王超</t>
-  </si>
-  <si>
-    <t xml:space="preserve">城区营销区域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n广安城区9片_刘昶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n广安城区8片_李程柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n广安城区10片_杨芳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c广安城区7片_李江琴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c广安城区5片_周宏玮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2710.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c广安城区4片_罗烃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">845400.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">845400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">422700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c广安城区3片_陈娇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c广安城区2片_宋昕</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c广安城区1片_唐建芬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7491.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3693</t>
   </si>
 </sst>
 </file>
@@ -753,1787 +756,1808 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>136</v>
-      </c>
+      <c r="A58"/>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
         <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
         <v>166</v>
       </c>
-      <c r="B68" t="s">
-        <v>17</v>
-      </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="F80" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
